--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P40_trail9 Features.xlsx
@@ -4116,7 +4116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4127,29 +4127,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4170,115 +4168,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4295,72 +4283,66 @@
         <v>1.547234617140731e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.5813389469393665</v>
+        <v>8.513980529909745e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.4338693485884022</v>
+        <v>3.812811924803876e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>8.513980529909745e-07</v>
+        <v>-0.07054235332535309</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.812811924803876e-06</v>
+        <v>0.3097430375571545</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.07054235332535309</v>
+        <v>0.1007112434012984</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3097430375571545</v>
+        <v>1.738256235925356</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1007112434012984</v>
+        <v>1.813051896186121</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.677373580187477</v>
+        <v>3.794054894172779</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.813051896186121</v>
+        <v>3.114136604049924e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.794054894172779</v>
+        <v>71247566.45793986</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.114136604049924e-15</v>
+        <v>1.606983018407639e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>71247566.45793986</v>
+        <v>15.80802920294652</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.606983018407639e-06</v>
+        <v>0.0001532335896269349</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>15.80802920294652</v>
+        <v>10.41179143920866</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001532335896269349</v>
+        <v>1.172950949242591</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.41179143920866</v>
+        <v>0.01661134872612869</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.172950949242591</v>
+        <v>2.749358261644854</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01661134872612869</v>
+        <v>0.9567911923738227</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.749358261644854</v>
+        <v>1.753985003339595</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9567911923738227</v>
+        <v>22</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.753985003339595</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1936086441696319</v>
       </c>
     </row>
@@ -4375,72 +4357,66 @@
         <v>1.408744684225626e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2245502045487975</v>
+        <v>6.150495922539485e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.6552518347633116</v>
+        <v>3.804013805521568e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>6.150495922539485e-07</v>
+        <v>-0.04911534169995898</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.804013805521568e-06</v>
+        <v>0.2680412860537684</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.04911534169995898</v>
+        <v>0.07413049320692014</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2680412860537684</v>
+        <v>1.740579238727476</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07413049320692014</v>
+        <v>1.679858082759527</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.675628811387645</v>
+        <v>3.766832603868238</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.679858082759527</v>
+        <v>3.159309970311314e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.766832603868238</v>
+        <v>70526528.68386693</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.159309970311314e-15</v>
+        <v>1.624910313212642e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>70526528.68386693</v>
+        <v>15.7143801426678</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.624910313212642e-06</v>
+        <v>0.0001434241512437357</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>15.7143801426678</v>
+        <v>9.555465792965517</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001434241512437357</v>
+        <v>1.227303011521551</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.555465792965517</v>
+        <v>0.01309561843888175</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.227303011521551</v>
+        <v>2.826970823971058</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01309561843888175</v>
+        <v>0.9573391882674575</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.826970823971058</v>
+        <v>1.748898175224991</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9573391882674575</v>
+        <v>20</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.748898175224991</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1945671753005221</v>
       </c>
     </row>
@@ -4455,72 +4431,66 @@
         <v>1.353516235223326e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.1824717775987059</v>
+        <v>5.044811010774764e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.6766091967933674</v>
+        <v>3.798646981054704e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.044811010774764e-07</v>
+        <v>-0.02940844393586516</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.798646981054704e-06</v>
+        <v>0.2332835524887668</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.02940844393586516</v>
+        <v>0.05522072539927295</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2332835524887668</v>
+        <v>1.741777921171525</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05522072539927295</v>
+        <v>1.65822855334394</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.674338230222471</v>
+        <v>3.931706781141197</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.65822855334394</v>
+        <v>3.412419500757392e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.931706781141197</v>
+        <v>67115034.04963969</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.412419500757392e-15</v>
+        <v>1.711826153932875e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>67115034.04963969</v>
+        <v>15.37099724906423</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.711826153932875e-06</v>
+        <v>0.000134419609950064</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>15.37099724906423</v>
+        <v>8.136232023170516</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.000134419609950064</v>
+        <v>1.31357341548812</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.136232023170516</v>
+        <v>0.008898345839085029</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.31357341548812</v>
+        <v>2.962143496119145</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.008898345839085029</v>
+        <v>0.9550998806465945</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.962143496119145</v>
+        <v>1.744949500548003</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9550998806465945</v>
+        <v>20</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.744949500548003</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1981513003732958</v>
       </c>
     </row>
@@ -4535,72 +4505,66 @@
         <v>1.33550878144907e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2188270587267499</v>
+        <v>5.044811010774764e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.5814451224826356</v>
+        <v>3.795783265448016e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.044811010774764e-07</v>
+        <v>-0.01435999728961844</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.795783265448016e-06</v>
+        <v>0.2137159234390132</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01435999728961844</v>
+        <v>0.04585584105270996</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2137159234390132</v>
+        <v>1.654152437300439</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.04585584105270996</v>
+        <v>1.612043901771402</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.577225593734431</v>
+        <v>4.104474954229186</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.612043901771402</v>
+        <v>3.935689396006496e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.104474954229186</v>
+        <v>59596817.16952634</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>3.935689396006496e-15</v>
+        <v>1.862346254446353e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>59596817.16952634</v>
+        <v>13.97870531023696</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.862346254446353e-06</v>
+        <v>0.0001337135771570172</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>13.97870531023696</v>
+        <v>7.473619774290866</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001337135771570172</v>
+        <v>1.390883536741491</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.473619774290866</v>
+        <v>0.007468570853354556</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.390883536741491</v>
+        <v>3.003660180024812</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007468570853354556</v>
+        <v>0.9464525844672181</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.003660180024812</v>
+        <v>1.786315137321302</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9464525844672181</v>
+        <v>21</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.786315137321302</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1994165303826261</v>
       </c>
     </row>
@@ -4615,72 +4579,66 @@
         <v>1.33063532773677e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.2456920470895243</v>
+        <v>5.044811010774764e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.5403840642498023</v>
+        <v>3.794476275629964e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>5.044811010774764e-07</v>
+        <v>-0.006519296186185601</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.794476275629964e-06</v>
+        <v>0.2069275545177183</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.006519296186185601</v>
+        <v>0.0428566247795702</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2069275545177183</v>
+        <v>1.641981944883657</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0428566247795702</v>
+        <v>1.59285099528521</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.560367425945996</v>
+        <v>3.73685142966459</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.59285099528521</v>
+        <v>5.254738854783907e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.73685142966459</v>
+        <v>45211822.37029984</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>5.254738854783907e-15</v>
+        <v>2.44757228393368e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>45211822.37029984</v>
+        <v>10.74125836588311</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.44757228393368e-06</v>
+        <v>0.0001343066128985213</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>10.74125836588311</v>
+        <v>7.757519636015007</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001343066128985213</v>
+        <v>1.382714118291335</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.757519636015007</v>
+        <v>0.00808245255264768</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.382714118291335</v>
+        <v>2.950278680334763</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.00808245255264768</v>
+        <v>0.9465138238814216</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.950278680334763</v>
+        <v>1.821108517798048</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9465138238814216</v>
+        <v>21</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.821108517798048</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2158803889481858</v>
       </c>
     </row>
@@ -4695,72 +4653,66 @@
         <v>1.329112833938984e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2610265014498293</v>
+        <v>5.044811010774764e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.5242409432568764</v>
+        <v>3.793796620986566e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>5.044811010774764e-07</v>
+        <v>-0.004377540731838018</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.793796620986566e-06</v>
+        <v>0.2060938556018565</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.004377540731838018</v>
+        <v>0.04249358956609318</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2060938556018565</v>
+        <v>1.614489309969736</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.04249358956609318</v>
+        <v>1.580633637619608</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.526288292779584</v>
+        <v>3.807277586514146</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.580633637619608</v>
+        <v>5.062134922347977e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.807277586514146</v>
+        <v>47478194.44944326</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.062134922347977e-15</v>
+        <v>2.308223287728377e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>47478194.44944326</v>
+        <v>11.41095797479928</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.308223287728377e-06</v>
+        <v>0.0001317938031178685</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>11.41095797479928</v>
+        <v>8.362316479335725</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001317938031178685</v>
+        <v>1.302112518284711</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.362316479335725</v>
+        <v>0.009216121465833681</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.302112518284711</v>
+        <v>2.87668351586824</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.009216121465833681</v>
+        <v>0.9445424036336216</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.87668351586824</v>
+        <v>1.838889452538901</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9445424036336216</v>
+        <v>24</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.838889452538901</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2313559884991051</v>
       </c>
     </row>
@@ -5137,7 +5089,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.313637724625001</v>
+        <v>1.287557060588892</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.082497891790577</v>
@@ -5226,7 +5178,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.312216739788707</v>
+        <v>1.288852176782397</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.041363903366881</v>
@@ -5315,7 +5267,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.299997653765532</v>
+        <v>1.280064969834043</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.053491539091195</v>
@@ -5404,7 +5356,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.30065392270776</v>
+        <v>1.282403126451563</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.893799081736768</v>
@@ -5493,7 +5445,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.297989810172903</v>
+        <v>1.278303824232187</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.995502636655776</v>
@@ -5582,7 +5534,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.296793953993843</v>
+        <v>1.276696948353317</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.959290114567691</v>
@@ -5671,7 +5623,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.312422315589504</v>
+        <v>1.287674054039323</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.94351386899156</v>
@@ -5760,7 +5712,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.322776442105325</v>
+        <v>1.298142628112969</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.893501933715968</v>
@@ -5849,7 +5801,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.314864105416044</v>
+        <v>1.292501116017408</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.952861489991245</v>
@@ -5938,7 +5890,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.316527162940409</v>
+        <v>1.294791756723551</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.960766160920381</v>
@@ -6027,7 +5979,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.33586126602029</v>
+        <v>1.311243312088168</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.894061958751113</v>
@@ -6116,7 +6068,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.381048818258512</v>
+        <v>1.358237033076854</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.904509078759797</v>
@@ -6205,7 +6157,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.374124884368523</v>
+        <v>1.348630164734886</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.986309128650119</v>
@@ -6294,7 +6246,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.430893152695299</v>
+        <v>1.399200877980083</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.913533305722378</v>
@@ -6383,7 +6335,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.45034853259353</v>
+        <v>1.41242588909731</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.100568477908442</v>
@@ -6472,7 +6424,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.454823486909004</v>
+        <v>1.414894730562369</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.154051176276367</v>
@@ -6561,7 +6513,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.460120195313155</v>
+        <v>1.419119398391841</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.160374514616054</v>
@@ -6650,7 +6602,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.473203084249963</v>
+        <v>1.433443627019533</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.157351105071624</v>
@@ -6739,7 +6691,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.467736910847524</v>
+        <v>1.430409142623456</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.133380433549184</v>
@@ -6828,7 +6780,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.485587803185934</v>
+        <v>1.465163583029746</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.025108848506909</v>
@@ -6917,7 +6869,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.490214863038406</v>
+        <v>1.458431699373233</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.160003687476432</v>
@@ -7006,7 +6958,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.476998446545496</v>
+        <v>1.462482725342024</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.13262074569392</v>
@@ -7095,7 +7047,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.546192817332213</v>
+        <v>1.528679540586767</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.151341706393556</v>
@@ -7184,7 +7136,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.41221439000942</v>
+        <v>1.407308051645249</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.759808011842113</v>
@@ -7273,7 +7225,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.399131581775518</v>
+        <v>1.402267334133624</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.786230346170348</v>
@@ -7362,7 +7314,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.342740664267005</v>
+        <v>1.342481283967122</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.822530720463056</v>
@@ -7451,7 +7403,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.352336729826927</v>
+        <v>1.35625704209201</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.813739321154059</v>
@@ -7540,7 +7492,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.372202271900711</v>
+        <v>1.377037484371684</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.811508887047253</v>
@@ -7629,7 +7581,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.38386728796496</v>
+        <v>1.38954203558159</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.855097074783822</v>
@@ -7718,7 +7670,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.367982988228711</v>
+        <v>1.372735947631608</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.843371061764307</v>
@@ -7807,7 +7759,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.358217261174407</v>
+        <v>1.362366691782656</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.852210405878653</v>
@@ -7896,7 +7848,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.333829519089917</v>
+        <v>1.340129423489129</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.879304419598489</v>
@@ -7985,7 +7937,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.330697375079466</v>
+        <v>1.334064566916242</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.874987482287999</v>
@@ -8074,7 +8026,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.329560967352592</v>
+        <v>1.33123168424303</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.879861530848189</v>
@@ -8163,7 +8115,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.332287649632558</v>
+        <v>1.332905284011264</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.922824828515978</v>
@@ -8252,7 +8204,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.348472841514421</v>
+        <v>1.351212866593129</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.968639633888911</v>
@@ -8341,7 +8293,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.358870974988739</v>
+        <v>1.363100250453408</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.909554277933818</v>
@@ -8430,7 +8382,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.354489068174273</v>
+        <v>1.358191413139976</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.905471869285555</v>
@@ -8519,7 +8471,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.437351205034131</v>
+        <v>1.434040026823845</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.904288730950795</v>
@@ -8608,7 +8560,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.460893485225748</v>
+        <v>1.458295142652496</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.899133605837132</v>
@@ -8697,7 +8649,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.535211531496808</v>
+        <v>1.529081334828069</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.005287200978994</v>
@@ -8786,7 +8738,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.525366797166319</v>
+        <v>1.514317362159574</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.011326430256042</v>
@@ -8875,7 +8827,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.529890543920098</v>
+        <v>1.517694091018185</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.017429622979232</v>
@@ -8964,7 +8916,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.531431415580275</v>
+        <v>1.522013051244606</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.032574132103746</v>
@@ -9053,7 +9005,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.557346932856907</v>
+        <v>1.542490227609845</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.988594564681657</v>
@@ -9142,7 +9094,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.545464747287817</v>
+        <v>1.522284473198008</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.738643909451757</v>
@@ -9231,7 +9183,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.569722646096533</v>
+        <v>1.558779510025989</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.022759789835826</v>
@@ -9320,7 +9272,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.545228099666234</v>
+        <v>1.541876013046459</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.051296129844587</v>
@@ -9409,7 +9361,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.562065860958515</v>
+        <v>1.560634420682469</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.026275569711963</v>
@@ -9498,7 +9450,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.545372756025163</v>
+        <v>1.541398955543151</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.046086869726271</v>
@@ -9587,7 +9539,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.50970067276984</v>
+        <v>1.513170754823671</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.032464005677517</v>
@@ -9873,7 +9825,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.31607152402702</v>
+        <v>1.293524263550595</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.063970339196915</v>
@@ -9962,7 +9914,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.316908316825659</v>
+        <v>1.296509115587752</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.03766543178528</v>
@@ -10051,7 +10003,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.302735757310622</v>
+        <v>1.28436968788583</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.022648176371558</v>
@@ -10140,7 +10092,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.3020555622573</v>
+        <v>1.286336519892807</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.870171611824366</v>
@@ -10229,7 +10181,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.298890063289213</v>
+        <v>1.283318376226962</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.993100983176068</v>
@@ -10318,7 +10270,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.297626948047865</v>
+        <v>1.281005651963695</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.930388200245128</v>
@@ -10407,7 +10359,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.317822073731546</v>
+        <v>1.299152981371181</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.930647209017694</v>
@@ -10496,7 +10448,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.334611590399749</v>
+        <v>1.318682307708934</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.853290535380371</v>
@@ -10585,7 +10537,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.3355591946424</v>
+        <v>1.323496704886751</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.925632053477464</v>
@@ -10674,7 +10626,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.342091396645241</v>
+        <v>1.330447027864731</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.920736019438567</v>
@@ -10763,7 +10715,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.354737501442174</v>
+        <v>1.34110723840722</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.855265901371047</v>
@@ -10852,7 +10804,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.403772601199449</v>
+        <v>1.394016365063119</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.893172997733501</v>
@@ -10941,7 +10893,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.398287110700372</v>
+        <v>1.387572638922465</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.944637446452467</v>
@@ -11030,7 +10982,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.478632845747055</v>
+        <v>1.456044542730753</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.88099916698472</v>
@@ -11119,7 +11071,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.500824053025752</v>
+        <v>1.471713401876729</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.101401362067799</v>
@@ -11208,7 +11160,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.499658821734821</v>
+        <v>1.4711706083833</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.088860571006381</v>
@@ -11297,7 +11249,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.504144007108887</v>
+        <v>1.476777535689845</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.11210261840821</v>
@@ -11386,7 +11338,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.522633405998036</v>
+        <v>1.495579800438854</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.060964657623277</v>
@@ -11475,7 +11427,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.519885655363302</v>
+        <v>1.495775217304363</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.093726472980307</v>
@@ -11564,7 +11516,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.533946732011088</v>
+        <v>1.524817383486896</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.969131763717057</v>
@@ -11653,7 +11605,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.525334698224597</v>
+        <v>1.500103243733357</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.057922508082731</v>
@@ -11742,7 +11694,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.499960680241589</v>
+        <v>1.496881515344283</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.028658509360614</v>
@@ -11831,7 +11783,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.563534594461929</v>
+        <v>1.554407714114771</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.97290681646001</v>
@@ -11920,7 +11872,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.375127190928219</v>
+        <v>1.376051143619162</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.668225161731967</v>
@@ -12009,7 +11961,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.348980648063451</v>
+        <v>1.354805186987244</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.683568305678329</v>
@@ -12098,7 +12050,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.290724271925657</v>
+        <v>1.288553021771123</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.736938362862088</v>
@@ -12187,7 +12139,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.286088498401684</v>
+        <v>1.285933547676512</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.730984350106684</v>
@@ -12276,7 +12228,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.283930307640995</v>
+        <v>1.284909379391793</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.705120021502896</v>
@@ -12365,7 +12317,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.281451667493378</v>
+        <v>1.28156369670323</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.704556661673207</v>
@@ -12454,7 +12406,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.267598687721061</v>
+        <v>1.266706219622867</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.723630801775925</v>
@@ -12543,7 +12495,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.256318661134673</v>
+        <v>1.254254889351836</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.733628247750657</v>
@@ -12632,7 +12584,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.22283794280438</v>
+        <v>1.219834795722375</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.753570004732182</v>
@@ -12721,7 +12673,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.216571577039432</v>
+        <v>1.21204881951868</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.751609621450769</v>
@@ -12810,7 +12762,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.211470460851068</v>
+        <v>1.204015494215698</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.755943373204843</v>
@@ -12899,7 +12851,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.211915200233048</v>
+        <v>1.202920949069332</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.755228958504853</v>
@@ -12988,7 +12940,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.220484833747824</v>
+        <v>1.212448915662961</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.810926701731113</v>
@@ -13077,7 +13029,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.228143924955458</v>
+        <v>1.22045384985925</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.754980078007126</v>
@@ -13166,7 +13118,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.2356539908513</v>
+        <v>1.227223203921031</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.779635531600474</v>
@@ -13255,7 +13207,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.297933535142796</v>
+        <v>1.284591989304399</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.718922615060771</v>
@@ -13344,7 +13296,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.327071798283769</v>
+        <v>1.315311580621278</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.723873228239273</v>
@@ -13433,7 +13385,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.393381802318129</v>
+        <v>1.379506413572839</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.771654178057306</v>
@@ -13522,7 +13474,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.397991648083286</v>
+        <v>1.37978913987948</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.823575328267965</v>
@@ -13611,7 +13563,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.399176931369374</v>
+        <v>1.377176003187868</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.829464814982503</v>
@@ -13700,7 +13652,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.399760381701174</v>
+        <v>1.377360889003222</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.825881271399489</v>
@@ -13789,7 +13741,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.42342122212964</v>
+        <v>1.390890815527528</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.787124798830138</v>
@@ -13878,7 +13830,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.410193106439326</v>
+        <v>1.370868510921263</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.595687776355973</v>
@@ -13967,7 +13919,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.419962698187836</v>
+        <v>1.400413836637044</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.842261010380915</v>
@@ -14056,7 +14008,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.418592756047773</v>
+        <v>1.405589638756285</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.84726717773986</v>
@@ -14145,7 +14097,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.441242844916433</v>
+        <v>1.429556619406234</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.847535110082488</v>
@@ -14234,7 +14186,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.426419317436338</v>
+        <v>1.418523800300797</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.852759027493212</v>
@@ -14323,7 +14275,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.422595737989101</v>
+        <v>1.419556959917108</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.833500308897106</v>
@@ -14609,7 +14561,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.333494009860924</v>
+        <v>1.30514962176583</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.059917350142447</v>
@@ -14698,7 +14650,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.334171162069604</v>
+        <v>1.309388786521246</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.030380339457925</v>
@@ -14787,7 +14739,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.3189759599559</v>
+        <v>1.295971460423001</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.018136307111824</v>
@@ -14876,7 +14828,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.320650157784204</v>
+        <v>1.30126896133864</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.884408677599637</v>
@@ -14965,7 +14917,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.316938235087221</v>
+        <v>1.298367139026196</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.982538124757765</v>
@@ -15054,7 +15006,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.313633686464357</v>
+        <v>1.294049212024836</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.936293861782988</v>
@@ -15143,7 +15095,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.332585927815118</v>
+        <v>1.309818552191494</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.891407112774177</v>
@@ -15232,7 +15184,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.345088975249525</v>
+        <v>1.325768324442532</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.851822323687863</v>
@@ -15321,7 +15273,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.343193063957524</v>
+        <v>1.329108660142895</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.918463103186515</v>
@@ -15410,7 +15362,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.343440543752563</v>
+        <v>1.328813295592883</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.924016383151824</v>
@@ -15499,7 +15451,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.353954973257251</v>
+        <v>1.335164174545739</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.857918583468462</v>
@@ -15588,7 +15540,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.402972603551293</v>
+        <v>1.386955714322346</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.867847468892155</v>
@@ -15677,7 +15629,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.392238352277054</v>
+        <v>1.37433549524411</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.923569275684513</v>
@@ -15766,7 +15718,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.465562048302653</v>
+        <v>1.43880181193309</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.872100228390568</v>
@@ -15855,7 +15807,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.47864353452372</v>
+        <v>1.44839129297935</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.098366952078357</v>
@@ -15944,7 +15896,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.481629025330812</v>
+        <v>1.453042869184768</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.103099821081689</v>
@@ -16033,7 +15985,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.484611653362092</v>
+        <v>1.456943797596229</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.079106992653047</v>
@@ -16122,7 +16074,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.50157049992212</v>
+        <v>1.472849837673627</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.059702390335986</v>
@@ -16211,7 +16163,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.498433184974071</v>
+        <v>1.470518825504131</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.068540815384382</v>
@@ -16300,7 +16252,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.513928407192568</v>
+        <v>1.50246763781784</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.972863999293314</v>
@@ -16389,7 +16341,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.506315853260572</v>
+        <v>1.478059302695499</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.05335067683995</v>
@@ -16478,7 +16430,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.480310390698699</v>
+        <v>1.470488103061924</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.022887125468972</v>
@@ -16567,7 +16519,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.541138858294804</v>
+        <v>1.526504459969791</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.966543785911466</v>
@@ -16656,7 +16608,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.365502649652001</v>
+        <v>1.362626564019251</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.673729274677817</v>
@@ -16745,7 +16697,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.339623044195076</v>
+        <v>1.341959978417562</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.688902244555966</v>
@@ -16834,7 +16786,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.285028942813009</v>
+        <v>1.28116777749927</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.737110437911158</v>
@@ -16923,7 +16875,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.281063020439967</v>
+        <v>1.278942127761504</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.729530370224951</v>
@@ -17012,7 +16964,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.284878451440094</v>
+        <v>1.284111326201283</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.713616688525834</v>
@@ -17101,7 +17053,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.287433752688819</v>
+        <v>1.286321395822366</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.720596189841136</v>
@@ -17190,7 +17142,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.269021950294778</v>
+        <v>1.268748141090659</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.719119917665842</v>
@@ -17279,7 +17231,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.255546884610405</v>
+        <v>1.253449407541253</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.722909319690373</v>
@@ -17368,7 +17320,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.226363015234627</v>
+        <v>1.222487901315851</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.762311805988346</v>
@@ -17457,7 +17409,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.222539392397995</v>
+        <v>1.218105391220256</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.762710163584781</v>
@@ -17546,7 +17498,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.217199816845173</v>
+        <v>1.21107345585607</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.754245142516932</v>
@@ -17635,7 +17587,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.215654977777117</v>
+        <v>1.208612202639585</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.760001398358214</v>
@@ -17724,7 +17676,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.228359974543818</v>
+        <v>1.221181474367033</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.819753328973565</v>
@@ -17813,7 +17765,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.241718441182346</v>
+        <v>1.237284103493363</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.769703890388984</v>
@@ -17902,7 +17854,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.248011777563374</v>
+        <v>1.241721951741322</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.781467599580644</v>
@@ -17991,7 +17943,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.316714150082041</v>
+        <v>1.303167559210321</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.741529427030718</v>
@@ -18080,7 +18032,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.34467420238723</v>
+        <v>1.333593712748469</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.751130792965608</v>
@@ -18169,7 +18121,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.420439583922774</v>
+        <v>1.407646680516566</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.800131382467001</v>
@@ -18258,7 +18210,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.420630016618752</v>
+        <v>1.406837234843324</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.855011967126885</v>
@@ -18347,7 +18299,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.432016147467511</v>
+        <v>1.41609629413525</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.859898045393065</v>
@@ -18436,7 +18388,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.433447543497018</v>
+        <v>1.415332383305721</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.873319759479422</v>
@@ -18525,7 +18477,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.458096448969616</v>
+        <v>1.430532243605652</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.835803619019328</v>
@@ -18614,7 +18566,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.443739624749382</v>
+        <v>1.408648834450567</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.625525739264479</v>
@@ -18703,7 +18655,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.472160039278759</v>
+        <v>1.45176894460972</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.853583654893806</v>
@@ -18792,7 +18744,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.485370128941846</v>
+        <v>1.464113554532927</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.858907544244086</v>
@@ -18881,7 +18833,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.511162481885251</v>
+        <v>1.4930926287294</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.86657800936557</v>
@@ -18970,7 +18922,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.498797670449019</v>
+        <v>1.482870265581988</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.863975900614684</v>
@@ -19059,7 +19011,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.486764351274372</v>
+        <v>1.478254959366374</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.858478933397832</v>
@@ -19345,7 +19297,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.317836942559842</v>
+        <v>1.28486952816235</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.08322083248434</v>
@@ -19434,7 +19386,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.322947885524119</v>
+        <v>1.289958198152769</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.067125158238996</v>
@@ -19523,7 +19475,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.302409213717336</v>
+        <v>1.27056007252924</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.003769799302701</v>
@@ -19612,7 +19564,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.301177321819273</v>
+        <v>1.270083649430808</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.843947821271708</v>
@@ -19701,7 +19653,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.291777357598987</v>
+        <v>1.263024871239892</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.981604449251097</v>
@@ -19790,7 +19742,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.288956227844852</v>
+        <v>1.262308528973206</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.922928371200685</v>
@@ -19879,7 +19831,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.303309948998051</v>
+        <v>1.270760557478364</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.919927592709709</v>
@@ -19968,7 +19920,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.314834960588681</v>
+        <v>1.280395972752368</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.845377700417018</v>
@@ -20057,7 +20009,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.311374226633275</v>
+        <v>1.27885279546995</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.934909234336499</v>
@@ -20146,7 +20098,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.316867992755327</v>
+        <v>1.286823668831594</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.920717539946973</v>
@@ -20235,7 +20187,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.324011904967801</v>
+        <v>1.288944898179581</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.849104591109329</v>
@@ -20324,7 +20276,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.369946094868133</v>
+        <v>1.333913551087883</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.907938507519511</v>
@@ -20413,7 +20365,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.361179755604271</v>
+        <v>1.325939651091155</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.955036089703736</v>
@@ -20502,7 +20454,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.414917399435691</v>
+        <v>1.370134961745914</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.866417948520945</v>
@@ -20591,7 +20543,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.432087187941788</v>
+        <v>1.375131488496594</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.088618661166378</v>
@@ -20680,7 +20632,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.439698064577389</v>
+        <v>1.381748681406517</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.092676888833843</v>
@@ -20769,7 +20721,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.439047160966945</v>
+        <v>1.381767943038899</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.074748869240045</v>
@@ -20858,7 +20810,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.452218843402082</v>
+        <v>1.396756022204073</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.042165952289669</v>
@@ -20947,7 +20899,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.449327791918752</v>
+        <v>1.394541486202822</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.065671075850048</v>
@@ -21036,7 +20988,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.453465746130017</v>
+        <v>1.408780805662615</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.952766736039577</v>
@@ -21125,7 +21077,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.444181882093815</v>
+        <v>1.388584243326707</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.99910265449983</v>
@@ -21214,7 +21166,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.421579223987895</v>
+        <v>1.384574686852279</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.008441735979063</v>
@@ -21303,7 +21255,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.46612777120009</v>
+        <v>1.420757975970451</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.9583602073915</v>
@@ -21392,7 +21344,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.336761964467317</v>
+        <v>1.313250782843665</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.67520782931347</v>
@@ -21481,7 +21433,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.314392799240812</v>
+        <v>1.296462739116864</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.69496525258282</v>
@@ -21570,7 +21522,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.267009803019211</v>
+        <v>1.247889374610826</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.720629348719522</v>
@@ -21659,7 +21611,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.263976069812818</v>
+        <v>1.249136958617931</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.730466080961927</v>
@@ -21748,7 +21700,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.263724589977404</v>
+        <v>1.252020459307092</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.711813286812594</v>
@@ -21837,7 +21789,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.263231710655989</v>
+        <v>1.251642544057461</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.714564486919023</v>
@@ -21926,7 +21878,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.248574721220973</v>
+        <v>1.237647556672981</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.720872371794508</v>
@@ -22015,7 +21967,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.241319512049265</v>
+        <v>1.230493949046738</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.71702211043783</v>
@@ -22104,7 +22056,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.215338342825116</v>
+        <v>1.205202801819186</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.750768888626902</v>
@@ -22193,7 +22145,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.217147480259971</v>
+        <v>1.206480937015025</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.764516889020047</v>
@@ -22282,7 +22234,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.216374867760724</v>
+        <v>1.204563473832646</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.767209829764812</v>
@@ -22371,7 +22323,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.220171709142339</v>
+        <v>1.209248848701271</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.775503699285346</v>
@@ -22460,7 +22412,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.231617302956566</v>
+        <v>1.220047712422779</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.814586121248799</v>
@@ -22549,7 +22501,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.238051385468462</v>
+        <v>1.227232781790028</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.761859201242508</v>
@@ -22638,7 +22590,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.243880462148479</v>
+        <v>1.232364338773695</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.779114390171451</v>
@@ -22727,7 +22679,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.307308739608264</v>
+        <v>1.283244219017972</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.740748921170002</v>
@@ -22816,7 +22768,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.336908513228587</v>
+        <v>1.312828009311936</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.745952620169859</v>
@@ -22905,7 +22857,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.40453166657911</v>
+        <v>1.375534921376826</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.797529912995051</v>
@@ -22994,7 +22946,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.408755750648108</v>
+        <v>1.377692416987446</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.845673248005662</v>
@@ -23083,7 +23035,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.415295447728437</v>
+        <v>1.380641763895465</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.841460036625211</v>
@@ -23172,7 +23124,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.419509631479221</v>
+        <v>1.387775441830332</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.811056135570491</v>
@@ -23261,7 +23213,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.438765340556633</v>
+        <v>1.400857671381508</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.809594850882141</v>
@@ -23350,7 +23302,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.419587816177513</v>
+        <v>1.374296355036041</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.606211680977772</v>
@@ -23439,7 +23391,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.444812934828215</v>
+        <v>1.414665222282218</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.819588026491891</v>
@@ -23528,7 +23480,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.452380119673936</v>
+        <v>1.423653790804519</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.820468954886629</v>
@@ -23617,7 +23569,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.467592084623084</v>
+        <v>1.443114824085153</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.824632595001629</v>
@@ -23706,7 +23658,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.453163081254687</v>
+        <v>1.42912797769393</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.835240963533744</v>
@@ -23795,7 +23747,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.43844956161285</v>
+        <v>1.418741054184077</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.825306111236789</v>
@@ -24081,7 +24033,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.282969295486732</v>
+        <v>1.245215650788125</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.994990965715686</v>
@@ -24170,7 +24122,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.279770739495124</v>
+        <v>1.245238679133188</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.961629151641695</v>
@@ -24259,7 +24211,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.251215334170298</v>
+        <v>1.217890265449517</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.929934779191642</v>
@@ -24348,7 +24300,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.243325605476964</v>
+        <v>1.212940767189473</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.780028598901921</v>
@@ -24437,7 +24389,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.231319139128152</v>
+        <v>1.200430544459852</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.877901645081055</v>
@@ -24526,7 +24478,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.229124810825994</v>
+        <v>1.197913627447919</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.826825911695064</v>
@@ -24615,7 +24567,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.240991428366101</v>
+        <v>1.20547504487617</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.805554376134686</v>
@@ -24704,7 +24656,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.249609598204355</v>
+        <v>1.212971821129772</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.735327201821802</v>
@@ -24793,7 +24745,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.240334781165012</v>
+        <v>1.207666635437855</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.785057478374719</v>
@@ -24882,7 +24834,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.239759960259945</v>
+        <v>1.207053474881864</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.788671560502822</v>
@@ -24971,7 +24923,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.250556355218627</v>
+        <v>1.215292149529462</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.72534794319457</v>
@@ -25060,7 +25012,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.27837077517478</v>
+        <v>1.246484150457276</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.71023526602341</v>
@@ -25149,7 +25101,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.276842022001546</v>
+        <v>1.245354539389464</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.755453815286409</v>
@@ -25238,7 +25190,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.327103748242634</v>
+        <v>1.286986966180153</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.635785548004373</v>
@@ -25327,7 +25279,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.337486533553934</v>
+        <v>1.293115113631961</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.764531812822399</v>
@@ -25416,7 +25368,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.338008771621066</v>
+        <v>1.294307665690239</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.765818094750326</v>
@@ -25505,7 +25457,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.334582776701885</v>
+        <v>1.291758918504425</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.751731791923785</v>
@@ -25594,7 +25546,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.346294444174984</v>
+        <v>1.303258089262372</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.730859066442473</v>
@@ -25683,7 +25635,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.343549791969659</v>
+        <v>1.300312012372666</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.711329858422922</v>
@@ -25772,7 +25724,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.325655955019378</v>
+        <v>1.305846114599752</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.580722664922582</v>
@@ -25861,7 +25813,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.311118198139728</v>
+        <v>1.263376139613747</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.632768215170041</v>
@@ -25950,7 +25902,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.247478572865692</v>
+        <v>1.223737557153619</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.600675907234287</v>
@@ -26039,7 +25991,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.271393922692151</v>
+        <v>1.24599976420216</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.489178072518777</v>
@@ -26128,7 +26080,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.203625593067941</v>
+        <v>1.18774557967374</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.472646178318758</v>
@@ -26217,7 +26169,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.199967811703331</v>
+        <v>1.193758758569262</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.509942443166169</v>
@@ -26306,7 +26258,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.170427098271147</v>
+        <v>1.154579194094351</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.583749166220187</v>
@@ -26395,7 +26347,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.16364075036035</v>
+        <v>1.148978999455789</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.586188739885592</v>
@@ -26484,7 +26436,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.15538101821993</v>
+        <v>1.141547041653452</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.560873407527877</v>
@@ -26573,7 +26525,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.154768906395366</v>
+        <v>1.140509851598404</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.557427023774454</v>
@@ -26662,7 +26614,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.152028847901633</v>
+        <v>1.135076892475053</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.590577935144191</v>
@@ -26751,7 +26703,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.148669266817279</v>
+        <v>1.13048807241158</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.608590235513574</v>
@@ -26840,7 +26792,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.132192270123738</v>
+        <v>1.113267284970291</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.647139136163428</v>
@@ -26929,7 +26881,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.13618640775959</v>
+        <v>1.117332783898869</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.659264139729313</v>
@@ -27018,7 +26970,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.138668843817451</v>
+        <v>1.119367484030424</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.670360981234629</v>
@@ -27107,7 +27059,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.147042271572204</v>
+        <v>1.126643192841648</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.686602294735076</v>
@@ -27196,7 +27148,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.158093444227113</v>
+        <v>1.139359247260025</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.707005573425289</v>
@@ -27285,7 +27237,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.167845337935828</v>
+        <v>1.149367999166321</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.683530994532275</v>
@@ -27374,7 +27326,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.179129754000073</v>
+        <v>1.159111526115001</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.705877025603502</v>
@@ -27463,7 +27415,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.206247829448807</v>
+        <v>1.174737291833202</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.625382648846213</v>
@@ -27552,7 +27504,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.229202627466564</v>
+        <v>1.197689427535092</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.61032786958897</v>
@@ -27641,7 +27593,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.273506287417801</v>
+        <v>1.235795930629768</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.638008908874982</v>
@@ -27730,7 +27682,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.285844763212662</v>
+        <v>1.245170484737635</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.663978504103671</v>
@@ -27819,7 +27771,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.294105097385552</v>
+        <v>1.251537857098141</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.683098376040749</v>
@@ -27908,7 +27860,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.304919108176709</v>
+        <v>1.260766662466984</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.709041391325258</v>
@@ -27997,7 +27949,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.337768263494383</v>
+        <v>1.280802094942649</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.687317383352428</v>
@@ -28086,7 +28038,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.330949489845277</v>
+        <v>1.267382548200838</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.512911595827732</v>
@@ -28175,7 +28127,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.335006994480764</v>
+        <v>1.286006907374646</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.677174865952923</v>
@@ -28264,7 +28216,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.341884435882028</v>
+        <v>1.291350864314486</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.675823178655433</v>
@@ -28353,7 +28305,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.348771390035</v>
+        <v>1.296786723474158</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.666045968225273</v>
@@ -28442,7 +28394,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.344353371719111</v>
+        <v>1.293698957490866</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.647796765024374</v>
@@ -28531,7 +28483,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.337576403277567</v>
+        <v>1.289627970577621</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.638218367204239</v>
@@ -28817,7 +28769,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.306065506015993</v>
+        <v>1.274929893411074</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.050554821357681</v>
@@ -28906,7 +28858,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.304505984867816</v>
+        <v>1.274844364517222</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.013386372138868</v>
@@ -28995,7 +28947,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.289731022923437</v>
+        <v>1.258930062768254</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.019655910456387</v>
@@ -29084,7 +29036,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.290295760194532</v>
+        <v>1.26165053255675</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.863458722545103</v>
@@ -29173,7 +29125,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.288646520680846</v>
+        <v>1.256027272560011</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.964601359638434</v>
@@ -29262,7 +29214,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.282986721231413</v>
+        <v>1.251210723039241</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.944023250620254</v>
@@ -29351,7 +29303,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.295624291873015</v>
+        <v>1.259650232245083</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.897356956793802</v>
@@ -29440,7 +29392,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.307613328651301</v>
+        <v>1.269562965367166</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.845695993572857</v>
@@ -29529,7 +29481,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.302704273785656</v>
+        <v>1.268330806849491</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.905278876964724</v>
@@ -29618,7 +29570,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.303020221296444</v>
+        <v>1.268964019298966</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.925314399107211</v>
@@ -29707,7 +29659,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.316134738282934</v>
+        <v>1.277519295264525</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.859612371250966</v>
@@ -29796,7 +29748,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.361662297142792</v>
+        <v>1.321932965089508</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.858909826260213</v>
@@ -29885,7 +29837,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.361929161304055</v>
+        <v>1.321629455127984</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.916602656846888</v>
@@ -29974,7 +29926,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.421047768999144</v>
+        <v>1.372145557480958</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.83928551436794</v>
@@ -30063,7 +30015,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.432502434527704</v>
+        <v>1.375105507279509</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.080252124193298</v>
@@ -30152,7 +30104,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.436694503429816</v>
+        <v>1.379629517962905</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.092918756787798</v>
@@ -30241,7 +30193,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.436393774033174</v>
+        <v>1.380111950601438</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.040240072687808</v>
@@ -30330,7 +30282,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.450088502388992</v>
+        <v>1.395230962797035</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.055277867953134</v>
@@ -30419,7 +30371,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.450747317270754</v>
+        <v>1.399726977819244</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.071164650972091</v>
@@ -30508,7 +30460,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.459246129656818</v>
+        <v>1.423678539849831</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.94174102983497</v>
@@ -30597,7 +30549,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.459489753912438</v>
+        <v>1.412525097372728</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.049835693376183</v>
@@ -30686,7 +30638,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.43592391953227</v>
+        <v>1.404095825088711</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.022887530659585</v>
@@ -30775,7 +30727,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.485623113440664</v>
+        <v>1.454572290881303</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.019203046373776</v>
@@ -30864,7 +30816,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.356734637927592</v>
+        <v>1.34353469176469</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.697743757128404</v>
@@ -30953,7 +30905,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.340050438902749</v>
+        <v>1.335704512267509</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.727724504404874</v>
@@ -31042,7 +30994,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.287277070437032</v>
+        <v>1.280158600624142</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.761808776028065</v>
@@ -31131,7 +31083,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.287309512061669</v>
+        <v>1.283444900041291</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.737463349350951</v>
@@ -31220,7 +31172,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.294966012314004</v>
+        <v>1.292423682960952</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.750211317842712</v>
@@ -31309,7 +31261,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.29797095341388</v>
+        <v>1.296793394092916</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.759055881809166</v>
@@ -31398,7 +31350,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.28528314844774</v>
+        <v>1.285058092604014</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.760430079077799</v>
@@ -31487,7 +31439,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.276253576027548</v>
+        <v>1.273989917704426</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.774700226923776</v>
@@ -31576,7 +31528,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.251114732452164</v>
+        <v>1.249989426482026</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.791975330316085</v>
@@ -31665,7 +31617,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.251672469553074</v>
+        <v>1.251795067177736</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.797488331694862</v>
@@ -31754,7 +31706,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.249589925061497</v>
+        <v>1.247708139519218</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.792857030448866</v>
@@ -31843,7 +31795,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.24630579647471</v>
+        <v>1.243747605423928</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.813995919462811</v>
@@ -31932,7 +31884,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.258076725890734</v>
+        <v>1.260744112366031</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.868438621260446</v>
@@ -32021,7 +31973,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.264881879917</v>
+        <v>1.268392122317533</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.801077924006789</v>
@@ -32110,7 +32062,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.269226305260602</v>
+        <v>1.270391962880006</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.823097668242353</v>
@@ -32199,7 +32151,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.336602867498421</v>
+        <v>1.3287176905979</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.78782256377984</v>
@@ -32288,7 +32240,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.358118078806879</v>
+        <v>1.349278877976082</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.787835808453822</v>
@@ -32377,7 +32329,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.425286975148767</v>
+        <v>1.411813717087514</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.861248308638554</v>
@@ -32466,7 +32418,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.425556634757576</v>
+        <v>1.412710449159908</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.874659074353239</v>
@@ -32555,7 +32507,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.427352217132968</v>
+        <v>1.41244512764567</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.898841497123131</v>
@@ -32644,7 +32596,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.434045811184308</v>
+        <v>1.422733768298223</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.876620042545433</v>
@@ -32733,7 +32685,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.456497134811235</v>
+        <v>1.436554157030369</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.858194767044103</v>
@@ -32822,7 +32774,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.446569745568151</v>
+        <v>1.418678048730384</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.645173548891437</v>
@@ -32911,7 +32863,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.467090965871021</v>
+        <v>1.453703620302223</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.860485449715524</v>
@@ -33000,7 +32952,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.4743173392796</v>
+        <v>1.458585240335459</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.864855179256695</v>
@@ -33089,7 +33041,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.473979176917553</v>
+        <v>1.463269275576028</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.872309620394076</v>
@@ -33178,7 +33130,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.399727791633414</v>
+        <v>1.382507484150226</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.713991436781532</v>
@@ -33267,7 +33219,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.311487640806958</v>
+        <v>1.307516595097431</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.705710092946555</v>
